--- a/sent_optimized_schedules/batt1_2024-11-28.xlsx
+++ b/sent_optimized_schedules/batt1_2024-11-28.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D11:CU11"/>
+  <dimension ref="D11:CR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,15 +701,6 @@
       <c r="CR11" t="n">
         <v>0</v>
       </c>
-      <c r="CS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
